--- a/static/FC_preenchido.xlsx
+++ b/static/FC_preenchido.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -428,18 +428,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Donativos - Renovação da Filial</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>179.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -451,10 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Donativos - Obra Mundial</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>O</t>
@@ -462,7 +474,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -474,22 +486,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>161.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>161.00</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -497,22 +519,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CF</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>365.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>365.00</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -520,20 +552,30 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>203.00</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>203.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -543,10 +585,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>D</t>
@@ -555,12 +603,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>277.00</t>
+          <t>197.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>277.00</t>
+          <t>197.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -570,22 +618,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Donativos - Obra Mundial</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -593,45 +647,57 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Donativos - Congregação</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Donativos - Renovação da Filial</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -639,45 +705,57 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Donativos - Congregação</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>175.00</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Donativos - Obra Mundial</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>109.50</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -685,45 +763,57 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Donativos - Obra Mundial</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>250.00</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>28</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Donativos - Congregação</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -731,22 +821,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Donativos - Transporte</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -754,22 +850,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Donativos - Renovação da Filial</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -777,29 +879,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>31</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Donativos - Congregação</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>786.00</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Donativos - Obra Mundial</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>O</t>
@@ -807,7 +925,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -819,24 +937,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Donativos - Congregação</t>
+          <t>Donativos - Obra Mundial</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -848,10 +966,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -865,7 +983,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -877,28 +995,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Donativos - Transporte</t>
+          <t>Donativos - Congregação</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -906,10 +1024,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -918,16 +1036,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -935,53 +1053,53 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Des</t>
+          <t>Donativos - Obra Mundial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>426.88</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Donativos - Renovação da Filial</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -993,14 +1111,14 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dep</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1011,12 +1129,12 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>275.00</t>
+          <t>192.00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>275.00</t>
+          <t>192.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1026,28 +1144,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>des</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>125.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1055,14 +1177,14 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Donativos - Congregação</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1073,12 +1195,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>326.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>326.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1088,26 +1210,30 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Donativos - Congregação</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1117,14 +1243,14 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Donativos - Congregação</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1135,12 +1261,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>193.00</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>193.00</t>
+          <t>190.00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1150,26 +1276,30 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Donativos - Congregação</t>
+          <t>Depósito Bancário</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CE</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1179,24 +1309,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Depósito Bancário</t>
+          <t>Donativos - Obra Mundial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1208,24 +1338,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Donativos para Obra Mundial</t>
+          <t>Donativos - Congregação</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1235,6 +1365,192 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Donativos - Congregação</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>31</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>115.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>115.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>31</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Depósito Bancário</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Remessas para Betel</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>832.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
